--- a/BOM/BOM 3720-ST.xlsx
+++ b/BOM/BOM 3720-ST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\Keithley_3700_ScrewTerminal\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B1B5E-B7C4-4738-B87D-2EBFA2D62A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4024B-837E-42F4-920C-1E463DB778C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
+    <workbookView xWindow="3105" yWindow="3975" windowWidth="21600" windowHeight="11505" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
   <sheets>
     <sheet name="FetHead" sheetId="3" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E10" si="0">C2*D2</f>
+        <f t="shared" ref="E2:E6" si="0">C2*D2</f>
         <v>20</v>
       </c>
       <c r="F2" t="s">
